--- a/biology/Médecine/Zuclopenthixol/Zuclopenthixol.xlsx
+++ b/biology/Médecine/Zuclopenthixol/Zuclopenthixol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le zuclopenthixol (Clopixol) est un antipsychotique typique de la famille des thioxanthènes. Il est utilisé dans le traitement des psychoses chroniques ou comme sédatif dans le cadre des maladies psychiatriques. Il possède un effet anti-hallucinatoire et un effet sédatif.
